--- a/罗浮中学_每日统计_20210901-20210925.xlsx
+++ b/罗浮中学_每日统计_20210901-20210925.xlsx
@@ -9,6 +9,7 @@
     <sheet name="每日统计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="按周统计汇总" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="按周统计汇总1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="按周统计汇总2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'每日统计'!$1:$3</definedName>
@@ -53836,6 +53837,1816 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>正常打卡次数</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>缺30分钟以内次数</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>缺30分钟以上次数</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>李永道</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>21-09-01 星期三 -&gt; 21-09-03 星期五</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>李永道</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>21-09-05 星期日 -&gt; 21-09-10 星期五</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>李永道</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>21-09-12 星期日 -&gt; 21-09-17 星期五</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>李永道</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>21-09-19 星期日 -&gt; 21-09-24 星期五</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>林侠</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>21-09-01 星期三 -&gt; 21-09-03 星期五</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>林侠</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>21-09-05 星期日 -&gt; 21-09-10 星期五</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>林侠</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>21-09-12 星期日 -&gt; 21-09-17 星期五</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>林侠</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>21-09-19 星期日 -&gt; 21-09-24 星期五</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>朱千新</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>21-09-01 星期三 -&gt; 21-09-03 星期五</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>朱千新</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>21-09-05 星期日 -&gt; 21-09-10 星期五</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>朱千新</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>21-09-12 星期日 -&gt; 21-09-17 星期五</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>朱千新</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>21-09-19 星期日 -&gt; 21-09-24 星期五</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>葛林亮</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>21-09-01 星期三 -&gt; 21-09-03 星期五</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>葛林亮</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>21-09-05 星期日 -&gt; 21-09-10 星期五</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>葛林亮</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>21-09-12 星期日 -&gt; 21-09-17 星期五</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>葛林亮</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>21-09-19 星期日 -&gt; 21-09-24 星期五</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>金然</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>21-09-01 星期三 -&gt; 21-09-03 星期五</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>金然</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>21-09-05 星期日 -&gt; 21-09-10 星期五</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>金然</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>21-09-12 星期日 -&gt; 21-09-17 星期五</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>金然</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>21-09-19 星期日 -&gt; 21-09-24 星期五</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>李建祥</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>21-09-01 星期三 -&gt; 21-09-03 星期五</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>李建祥</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>21-09-05 星期日 -&gt; 21-09-10 星期五</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>李建祥</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>21-09-12 星期日 -&gt; 21-09-17 星期五</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>李建祥</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>21-09-19 星期日 -&gt; 21-09-24 星期五</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>唐海琼</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>21-09-01 星期三 -&gt; 21-09-03 星期五</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>唐海琼</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>21-09-05 星期日 -&gt; 21-09-10 星期五</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>唐海琼</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>21-09-12 星期日 -&gt; 21-09-17 星期五</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>唐海琼</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>21-09-19 星期日 -&gt; 21-09-24 星期五</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>李忠键</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>21-09-01 星期三 -&gt; 21-09-03 星期五</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>李忠键</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>21-09-05 星期日 -&gt; 21-09-10 星期五</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>李忠键</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>21-09-12 星期日 -&gt; 21-09-17 星期五</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>李忠键</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>21-09-19 星期日 -&gt; 21-09-24 星期五</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>陈骁</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>21-09-01 星期三 -&gt; 21-09-03 星期五</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>陈骁</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>21-09-05 星期日 -&gt; 21-09-10 星期五</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>陈骁</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>21-09-12 星期日 -&gt; 21-09-17 星期五</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>陈骁</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>21-09-19 星期日 -&gt; 21-09-24 星期五</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>郑凯</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>21-09-01 星期三 -&gt; 21-09-03 星期五</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>郑凯</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>21-09-05 星期日 -&gt; 21-09-10 星期五</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>郑凯</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>21-09-12 星期日 -&gt; 21-09-17 星期五</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>郑凯</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>21-09-19 星期日 -&gt; 21-09-24 星期五</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>叶文俊</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>21-09-01 星期三 -&gt; 21-09-03 星期五</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>叶文俊</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>21-09-05 星期日 -&gt; 21-09-10 星期五</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>叶文俊</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>21-09-12 星期日 -&gt; 21-09-17 星期五</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>叶文俊</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>21-09-19 星期日 -&gt; 21-09-24 星期五</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>徐时芳</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>21-09-01 星期三 -&gt; 21-09-03 星期五</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>徐时芳</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>21-09-05 星期日 -&gt; 21-09-10 星期五</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>徐时芳</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>21-09-12 星期日 -&gt; 21-09-17 星期五</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>徐时芳</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>21-09-19 星期日 -&gt; 21-09-24 星期五</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>陈敏</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>21-09-01 星期三 -&gt; 21-09-03 星期五</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>陈敏</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>21-09-05 星期日 -&gt; 21-09-10 星期五</t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>陈敏</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>21-09-12 星期日 -&gt; 21-09-17 星期五</t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>陈敏</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>21-09-19 星期日 -&gt; 21-09-24 星期五</t>
+        </is>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>胡典</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>21-09-01 星期三 -&gt; 21-09-03 星期五</t>
+        </is>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>胡典</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>21-09-05 星期日 -&gt; 21-09-10 星期五</t>
+        </is>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>胡典</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>21-09-12 星期日 -&gt; 21-09-17 星期五</t>
+        </is>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>胡典</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>21-09-19 星期日 -&gt; 21-09-24 星期五</t>
+        </is>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>盛倩倩</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>21-09-01 星期三 -&gt; 21-09-03 星期五</t>
+        </is>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>盛倩倩</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>21-09-05 星期日 -&gt; 21-09-10 星期五</t>
+        </is>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>盛倩倩</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>21-09-12 星期日 -&gt; 21-09-17 星期五</t>
+        </is>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>盛倩倩</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>21-09-19 星期日 -&gt; 21-09-24 星期五</t>
+        </is>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>周长河</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>21-09-01 星期三 -&gt; 21-09-03 星期五</t>
+        </is>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>周长河</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>21-09-05 星期日 -&gt; 21-09-10 星期五</t>
+        </is>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>周长河</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>21-09-12 星期日 -&gt; 21-09-17 星期五</t>
+        </is>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>周长河</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>21-09-19 星期日 -&gt; 21-09-24 星期五</t>
+        </is>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>金孟倩</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>21-09-01 星期三 -&gt; 21-09-03 星期五</t>
+        </is>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>金孟倩</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>21-09-05 星期日 -&gt; 21-09-10 星期五</t>
+        </is>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>金孟倩</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>21-09-12 星期日 -&gt; 21-09-17 星期五</t>
+        </is>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>金孟倩</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>21-09-19 星期日 -&gt; 21-09-24 星期五</t>
+        </is>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>谢益纯</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>21-09-01 星期三 -&gt; 21-09-03 星期五</t>
+        </is>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>谢益纯</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>21-09-05 星期日 -&gt; 21-09-10 星期五</t>
+        </is>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>谢益纯</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>21-09-12 星期日 -&gt; 21-09-17 星期五</t>
+        </is>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>谢益纯</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>21-09-19 星期日 -&gt; 21-09-24 星期五</t>
+        </is>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>徐顺超</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>21-09-01 星期三 -&gt; 21-09-03 星期五</t>
+        </is>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>徐顺超</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>21-09-05 星期日 -&gt; 21-09-10 星期五</t>
+        </is>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>徐顺超</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>21-09-12 星期日 -&gt; 21-09-17 星期五</t>
+        </is>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>徐顺超</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>21-09-19 星期日 -&gt; 21-09-24 星期五</t>
+        </is>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>余玲微</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>21-09-01 星期三 -&gt; 21-09-03 星期五</t>
+        </is>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>余玲微</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>21-09-05 星期日 -&gt; 21-09-10 星期五</t>
+        </is>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>余玲微</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>21-09-12 星期日 -&gt; 21-09-17 星期五</t>
+        </is>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>余玲微</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>21-09-19 星期日 -&gt; 21-09-24 星期五</t>
+        </is>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>张磊</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>21-09-01 星期三 -&gt; 21-09-03 星期五</t>
+        </is>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>张磊</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>21-09-05 星期日 -&gt; 21-09-10 星期五</t>
+        </is>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>张磊</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>21-09-12 星期日 -&gt; 21-09-17 星期五</t>
+        </is>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>张磊</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>21-09-19 星期日 -&gt; 21-09-24 星期五</t>
+        </is>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>姓名</t>
